--- a/survey_data/IR Stock Questionaires (Responses).xlsx
+++ b/survey_data/IR Stock Questionaires (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanw/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98284EEF-C896-8F42-BA8B-6AFC6F4B2D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B8647F-AFE4-184D-A984-F9FF6658F8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
   <si>
     <t>Timestamp</t>
   </si>
@@ -413,6 +413,36 @@
   <si>
     <t>Not in the U.S.</t>
   </si>
+  <si>
+    <t>User_1</t>
+  </si>
+  <si>
+    <t>User_2</t>
+  </si>
+  <si>
+    <t>User_0</t>
+  </si>
+  <si>
+    <t>User_3</t>
+  </si>
+  <si>
+    <t>User_4</t>
+  </si>
+  <si>
+    <t>User_5</t>
+  </si>
+  <si>
+    <t>User_6</t>
+  </si>
+  <si>
+    <t>User_7</t>
+  </si>
+  <si>
+    <t>User_8</t>
+  </si>
+  <si>
+    <t>User_9</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -454,6 +484,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -783,9 +819,9 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -915,7 +951,9 @@
       <c r="S2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -975,7 +1013,9 @@
       <c r="S3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -1035,7 +1075,9 @@
       <c r="S4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -1095,7 +1137,9 @@
       <c r="S5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -1155,7 +1199,9 @@
       <c r="S6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -1215,7 +1261,9 @@
       <c r="S7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1275,7 +1323,9 @@
       <c r="S8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -1335,7 +1385,9 @@
       <c r="S9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -1395,7 +1447,9 @@
       <c r="S10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T10" s="3"/>
+      <c r="T10" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -1455,9 +1509,12 @@
       <c r="S11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="3"/>
+      <c r="T11" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
